--- a/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Edad-trans_dic.xlsx
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004505465887673772</v>
+        <v>0.004499362497445077</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002521619162527542</v>
+        <v>0.002522382156343955</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002072955090871278</v>
+        <v>0.002363304576572039</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00231022362878491</v>
+        <v>0.002426078102687357</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002340525910640723</v>
+        <v>0.002330228261887145</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003644463731603506</v>
+        <v>0.002581843292587736</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003042885075824956</v>
+        <v>0.002926034960746176</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.004711187714012154</v>
+        <v>0.005751030302806666</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003741842860042185</v>
+        <v>0.003643400660409067</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.004230482851673253</v>
+        <v>0.004473329832023582</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01896366716525368</v>
+        <v>0.02291530130943067</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03129437887310695</v>
+        <v>0.02964002327926918</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02308068060726523</v>
+        <v>0.0245705994660757</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04213267290103438</v>
+        <v>0.04699206209833489</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0198360164526834</v>
+        <v>0.0221563515734286</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02539823401887083</v>
+        <v>0.02142432709367867</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02251286565140506</v>
+        <v>0.02143271595701309</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03570296638856095</v>
+        <v>0.03466229910165095</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01697048630334669</v>
+        <v>0.01492039949482724</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02249672928895988</v>
+        <v>0.02187576763576975</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01648576067526902</v>
+        <v>0.01837211479794564</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03160653633228254</v>
+        <v>0.02790002748476915</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004725884890098393</v>
+        <v>0.004634302995558301</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003920734777485124</v>
+        <v>0.002726723702227962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01089281843230316</v>
+        <v>0.01129065059654335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006124346151673329</v>
+        <v>0.006304692743410824</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.009564111064021283</v>
+        <v>0.008454852531899131</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006232235381296644</v>
+        <v>0.004998130988326134</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01279662949647338</v>
+        <v>0.01233338514307336</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01481904289683873</v>
+        <v>0.01394632359051822</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008195201055264006</v>
+        <v>0.00847017451571298</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.005834260375977629</v>
+        <v>0.005853258824628472</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0145943280831579</v>
+        <v>0.01438122328015805</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01303360129821357</v>
+        <v>0.01399251597390546</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02262391630648648</v>
+        <v>0.02334368031820674</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0174279426840397</v>
+        <v>0.01727692962272732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03760025576534393</v>
+        <v>0.0395800265068381</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03978835795928537</v>
+        <v>0.04444244194048011</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03350259033965576</v>
+        <v>0.03112521387915769</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02723584796977937</v>
+        <v>0.02714196486359604</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04102674281375187</v>
+        <v>0.04061378243693994</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04778020032972995</v>
+        <v>0.04699127687261776</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02139040138356433</v>
+        <v>0.02270312040009485</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0175720480492825</v>
+        <v>0.0178263008986208</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03393202247368701</v>
+        <v>0.0321658685449809</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03775364049082739</v>
+        <v>0.03647249279250966</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.01784114412563645</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.02395818881687986</v>
+        <v>0.02395818881687987</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01467765199434688</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005697360151841068</v>
+        <v>0.005953823844627841</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004174256078401487</v>
+        <v>0.004177047677605318</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006920512306941963</v>
+        <v>0.005875219509696713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01091209923104532</v>
+        <v>0.0114929140321785</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007908653094058393</v>
+        <v>0.008285283472369934</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006967680511035333</v>
+        <v>0.007852319129641643</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009641114275797941</v>
+        <v>0.009624936092991686</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01472399055340973</v>
+        <v>0.01533648784680409</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009172855864656678</v>
+        <v>0.008585411174841061</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007593566025671921</v>
+        <v>0.007366160576527206</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009305709061024105</v>
+        <v>0.01024595365223834</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01575436202410129</v>
+        <v>0.01591509836752918</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02594973850210247</v>
+        <v>0.02554944642847189</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01878136416701855</v>
+        <v>0.01983030347672007</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02582282897261879</v>
+        <v>0.02515047787941377</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03752525377620594</v>
+        <v>0.04001463111212896</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02985491509175219</v>
+        <v>0.02981460737305812</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0293896847769303</v>
+        <v>0.02896140564111709</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03031783750223456</v>
+        <v>0.02949584172371906</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03711882379115367</v>
+        <v>0.0363490530451159</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02342483007950815</v>
+        <v>0.02415767673814049</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02109910968491762</v>
+        <v>0.01956863740617773</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02444198253326188</v>
+        <v>0.02382315558910543</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03229466598958773</v>
+        <v>0.03269124959107007</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02518221686479795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0209282754782156</v>
+        <v>0.02092827547821559</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0198886470517302</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006815551579395206</v>
+        <v>0.006146388598647014</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005299201262819418</v>
+        <v>0.005320594688130633</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01391506720711063</v>
+        <v>0.01405832380747906</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01115201422780568</v>
+        <v>0.01138048814796939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009725945706175751</v>
+        <v>0.009873983494492571</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.001564757955563273</v>
+        <v>0.001556014605654016</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009495044320397415</v>
+        <v>0.009867465228757847</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02048451796981973</v>
+        <v>0.0207325441063326</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01067779836172449</v>
+        <v>0.01061203935979702</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.005012791229849954</v>
+        <v>0.005089839642803751</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01413937941585721</v>
+        <v>0.01426458859768349</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01764343617258585</v>
+        <v>0.01850730973124693</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02798239079769076</v>
+        <v>0.03011002692630601</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0286651383065698</v>
+        <v>0.02849716534735785</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04348979999446222</v>
+        <v>0.04287177196728761</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03296867701524167</v>
+        <v>0.0344319858846307</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03468566650420093</v>
+        <v>0.03709908670538958</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01451590563991017</v>
+        <v>0.01370147404347209</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03088773559729498</v>
+        <v>0.03282890103493059</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03918630526352838</v>
+        <v>0.03992104424208774</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02689723320942048</v>
+        <v>0.02648937684814684</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01816382757426289</v>
+        <v>0.01782619846505096</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03211176767549636</v>
+        <v>0.03209531659297319</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03388760730311986</v>
+        <v>0.03403553579803725</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01403698847600886</v>
+        <v>0.01396344899681829</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009955517135657442</v>
+        <v>0.01212260806106588</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01068755928205253</v>
+        <v>0.010813769177179</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.006038763333372099</v>
+        <v>0.006022024265661867</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01149598531541516</v>
+        <v>0.01210530005282471</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.002175876884817874</v>
+        <v>0.002325039738331583</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01214589571010823</v>
+        <v>0.01231658356913616</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01392178407675169</v>
+        <v>0.01443139212865677</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01569791467979342</v>
+        <v>0.01688350988475471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.008657201297651273</v>
+        <v>0.009008447201159706</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01434578169443766</v>
+        <v>0.01482885474347152</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01217870272328893</v>
+        <v>0.01225664132158038</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04961525832813229</v>
+        <v>0.04790328364918903</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04510618202265724</v>
+        <v>0.05124866929837744</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03975454057242367</v>
+        <v>0.03859713835895299</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02459036363621057</v>
+        <v>0.02478857077973576</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04787611026726799</v>
+        <v>0.0486359334666395</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0235428634891203</v>
+        <v>0.02347107911805837</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04606420555288435</v>
+        <v>0.0468899462058146</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03439116311185066</v>
+        <v>0.03278879496950355</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0381074782286903</v>
+        <v>0.04097409965456553</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02840194269978913</v>
+        <v>0.02876712238788642</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03561001696017146</v>
+        <v>0.03675958361191106</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02541421947911504</v>
+        <v>0.02462558909989312</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009024018871646862</v>
+        <v>0.009396564199571401</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006687959207411486</v>
+        <v>0.006737428071348362</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003097223818689301</v>
+        <v>0.002780580142056144</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01498698628654548</v>
+        <v>0.0143961199215828</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.005361143138548721</v>
+        <v>0.005560021291722598</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.008050928224424889</v>
+        <v>0.008379091003377739</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01112170080095678</v>
+        <v>0.01079753262689187</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.00913585386802844</v>
+        <v>0.008891904128437773</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009990837639926349</v>
+        <v>0.0101727074354906</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01060314122614988</v>
+        <v>0.01076024521360306</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01081704880885376</v>
+        <v>0.009664059448069999</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01388952992807399</v>
+        <v>0.01398933190114357</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04095252980637602</v>
+        <v>0.04267059361534348</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04581000390785435</v>
+        <v>0.05013068994511899</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02923008804746852</v>
+        <v>0.02916330386512147</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04263494956678952</v>
+        <v>0.04144769697839647</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03158680037406809</v>
+        <v>0.03392603493260161</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03829580390416581</v>
+        <v>0.03853455389511622</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04887457894435408</v>
+        <v>0.04863800801902948</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02708191336457269</v>
+        <v>0.02677388055450542</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0295779362998137</v>
+        <v>0.03141934919681419</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03492860733899503</v>
+        <v>0.03366973198895977</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03424172879506161</v>
+        <v>0.03196164285061902</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.02973214245383069</v>
+        <v>0.03000417954414771</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.01425749701469593</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.01735875157002478</v>
+        <v>0.01735875157002477</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004322647384044744</v>
+        <v>0.004275225197644967</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006188847111785393</v>
+        <v>0.006483459377517212</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.003436701220536506</v>
+        <v>0.00413271886335741</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.00322284413936162</v>
+        <v>0.003197433331468747</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.005767226997539733</v>
+        <v>0.005909074952806093</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.00318378421531118</v>
+        <v>0.003213335399865732</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01293342052330889</v>
+        <v>0.01241876453521162</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00444078188789089</v>
+        <v>0.004407620370275915</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.005015800875576104</v>
+        <v>0.005107651451745167</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.006891905309947396</v>
+        <v>0.006545535004427239</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01079295427870023</v>
+        <v>0.01068811902554885</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04872947448089422</v>
+        <v>0.04526698839087381</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0195594733332663</v>
+        <v>0.01763444090114152</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04503734587059253</v>
+        <v>0.04369272924628498</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02707381348669925</v>
+        <v>0.02803206836861984</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03142189500389728</v>
+        <v>0.028920537479455</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03473346325947704</v>
+        <v>0.03682798827568549</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02642828992010179</v>
+        <v>0.03045686184771278</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03417148488684928</v>
+        <v>0.03387635487382153</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02446332023411691</v>
+        <v>0.02540224853670069</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02395408884596952</v>
+        <v>0.0242867961381103</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0268759785056188</v>
+        <v>0.02755124479007922</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02599451400169578</v>
+        <v>0.02578828684649221</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01040876009690163</v>
+        <v>0.01050007968090489</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009346928317032457</v>
+        <v>0.009165293960627305</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0137726205145387</v>
+        <v>0.01411167687498522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01383488945828351</v>
+        <v>0.01340367158791818</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01187234438377257</v>
+        <v>0.01222716808264533</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.008934788260747473</v>
+        <v>0.008804871788197065</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01423236912651299</v>
+        <v>0.01395718901827924</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01882350420284923</v>
+        <v>0.01868006419978694</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01228649801512709</v>
+        <v>0.0124731425584303</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01030473215621848</v>
+        <v>0.009931310540862836</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01494950254600299</v>
+        <v>0.01505905919761619</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01724921821579515</v>
+        <v>0.01759046219607625</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01880544140780325</v>
+        <v>0.01909775885376024</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01782084155155628</v>
+        <v>0.01768969829193057</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02308876150421301</v>
+        <v>0.02345423144551749</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02353386828676792</v>
+        <v>0.02346778189691819</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0210829211882431</v>
+        <v>0.02153900608299412</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01680885720677698</v>
+        <v>0.01721849921532371</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02376821947388872</v>
+        <v>0.02398525005606423</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02766206675885786</v>
+        <v>0.02730363209486178</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01837811888399054</v>
+        <v>0.01850212570741089</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0160197280193046</v>
+        <v>0.01543900060234787</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02226225177121745</v>
+        <v>0.02212880349133691</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02380772428769627</v>
+        <v>0.02418576094138528</v>
       </c>
     </row>
     <row r="28">
@@ -2014,37 +2014,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>969</v>
+        <v>1105</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>984</v>
+        <v>1033</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1321</v>
+        <v>936</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2923</v>
+        <v>2811</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4133</v>
+        <v>5045</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3047</v>
+        <v>2967</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3259</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9353</v>
+        <v>11302</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14122</v>
+        <v>13375</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9659</v>
+        <v>10282</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17181</v>
+        <v>19163</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9273</v>
+        <v>10358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10819</v>
+        <v>9126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8910</v>
+        <v>8482</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12943</v>
+        <v>12565</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16304</v>
+        <v>14334</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>19735</v>
+        <v>19190</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>13423</v>
+        <v>14959</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>24347</v>
+        <v>21492</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3472</v>
+        <v>3404</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2679</v>
+        <v>1863</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6421</v>
+        <v>6656</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2921</v>
+        <v>3007</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5982</v>
+        <v>5288</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3756</v>
+        <v>3012</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7175</v>
+        <v>6915</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7391</v>
+        <v>6956</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11146</v>
+        <v>11520</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>7503</v>
+        <v>7527</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16786</v>
+        <v>16541</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>12716</v>
+        <v>13652</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16620</v>
+        <v>17148</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11908</v>
+        <v>11804</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22164</v>
+        <v>23331</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18975</v>
+        <v>21194</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>20956</v>
+        <v>19469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16415</v>
+        <v>16359</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23003</v>
+        <v>22772</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>23830</v>
+        <v>23437</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>29093</v>
+        <v>30878</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>22597</v>
+        <v>22924</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>39027</v>
+        <v>36996</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>36834</v>
+        <v>35584</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3634</v>
+        <v>3798</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4630</v>
+        <v>3931</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6775</v>
+        <v>7135</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5439</v>
+        <v>5698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4920</v>
+        <v>5544</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6340</v>
+        <v>6329</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>9160</v>
+        <v>9541</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12159</v>
+        <v>11381</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10488</v>
+        <v>10174</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>12346</v>
+        <v>13593</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19582</v>
+        <v>19782</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16552</v>
+        <v>16297</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12681</v>
+        <v>13389</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17278</v>
+        <v>16828</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23297</v>
+        <v>24843</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20532</v>
+        <v>20504</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20751</v>
+        <v>20448</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19936</v>
+        <v>19396</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23093</v>
+        <v>22614</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31052</v>
+        <v>32023</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29143</v>
+        <v>27029</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>32426</v>
+        <v>31605</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>40141</v>
+        <v>40634</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3526</v>
+        <v>3180</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3245</v>
+        <v>3259</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8931</v>
+        <v>9023</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7813</v>
+        <v>7973</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5015</v>
+        <v>5091</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6133</v>
+        <v>6373</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15086</v>
+        <v>15269</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11030</v>
+        <v>10963</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6143</v>
+        <v>6237</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>18207</v>
+        <v>18368</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>25355</v>
+        <v>26596</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14478</v>
+        <v>15578</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17556</v>
+        <v>17453</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27912</v>
+        <v>27515</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>23098</v>
+        <v>24124</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17885</v>
+        <v>19130</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8899</v>
+        <v>8399</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19949</v>
+        <v>21203</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28859</v>
+        <v>29400</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>27786</v>
+        <v>27364</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>22259</v>
+        <v>21845</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>41349</v>
+        <v>41328</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>48699</v>
+        <v>48912</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5428</v>
+        <v>5400</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4231</v>
+        <v>5152</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5097</v>
+        <v>5157</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3680</v>
+        <v>3669</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4644</v>
+        <v>4890</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5946</v>
+        <v>6030</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8470</v>
+        <v>8780</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>12412</v>
+        <v>13350</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>7538</v>
+        <v>7844</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>13864</v>
+        <v>14331</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>14831</v>
+        <v>14926</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19187</v>
+        <v>18525</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19171</v>
+        <v>21782</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18958</v>
+        <v>18406</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>14984</v>
+        <v>15105</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19341</v>
+        <v>19648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10493</v>
+        <v>10461</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22551</v>
+        <v>22955</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20924</v>
+        <v>19949</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>30131</v>
+        <v>32398</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>24731</v>
+        <v>25049</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34415</v>
+        <v>35525</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>30948</v>
+        <v>29988</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2624</v>
+        <v>2732</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2058</v>
+        <v>2074</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1027</v>
+        <v>922</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6091</v>
+        <v>5851</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1839</v>
+        <v>1907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2819</v>
+        <v>2934</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4191</v>
+        <v>4069</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4003</v>
+        <v>3896</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6331</v>
+        <v>6446</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6975</v>
+        <v>7079</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>7661</v>
+        <v>6844</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>11731</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11906</v>
+        <v>12406</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14098</v>
+        <v>15428</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9688</v>
+        <v>9666</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17327</v>
+        <v>16845</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>10832</v>
+        <v>11634</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>13408</v>
+        <v>13491</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>18416</v>
+        <v>18327</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11867</v>
+        <v>11732</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>18742</v>
+        <v>19909</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>22978</v>
+        <v>22150</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>24251</v>
+        <v>22636</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>25112</v>
+        <v>25341</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1581</v>
+        <v>1656</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1063</v>
+        <v>1278</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2218</v>
+        <v>2273</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1262</v>
+        <v>1274</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6004</v>
+        <v>5765</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2415</v>
+        <v>2397</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3166</v>
+        <v>3224</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4492</v>
+        <v>4267</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>8348</v>
+        <v>8267</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10227</v>
+        <v>9501</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>4824</v>
+        <v>4350</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>11502</v>
+        <v>11159</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8374</v>
+        <v>8670</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>10492</v>
+        <v>9657</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>13359</v>
+        <v>14165</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10478</v>
+        <v>12075</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>15862</v>
+        <v>15725</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>13303</v>
+        <v>13814</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>15122</v>
+        <v>15332</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>17519</v>
+        <v>17959</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>20106</v>
+        <v>19947</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>34041</v>
+        <v>34339</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>31794</v>
+        <v>31176</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>46587</v>
+        <v>47734</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>48854</v>
+        <v>47331</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>40095</v>
+        <v>41293</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>31524</v>
+        <v>31065</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>50136</v>
+        <v>49167</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>70223</v>
+        <v>69688</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>81675</v>
+        <v>82916</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>71409</v>
+        <v>68822</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>103230</v>
+        <v>103987</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>125261</v>
+        <v>127739</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>61501</v>
+        <v>62457</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>60619</v>
+        <v>60173</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>78099</v>
+        <v>79335</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>83103</v>
+        <v>82869</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>71201</v>
+        <v>72741</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>59305</v>
+        <v>60750</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>83728</v>
+        <v>84493</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>103197</v>
+        <v>101860</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>122170</v>
+        <v>122994</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>111013</v>
+        <v>106989</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>153726</v>
+        <v>152805</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>172887</v>
+        <v>175632</v>
       </c>
     </row>
     <row r="36">
